--- a/address_values.xlsx
+++ b/address_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -29,34 +29,307 @@
     <t>FULL NAME</t>
   </si>
   <si>
+    <t>OBJECT ID</t>
+  </si>
+  <si>
     <t>14c73394-b886-40a9-9e5c-547cfd4d6aad</t>
   </si>
   <si>
     <t>Костромская область, город Кострома</t>
   </si>
   <si>
-    <t>0cce9736-35cd-4ce3-b540-61f96db59aae</t>
-  </si>
-  <si>
-    <t>Костромская область, город Кострома, проезд Угличский</t>
-  </si>
-  <si>
-    <t>6dc2791e-53a9-46e3-9150-b137e9c4c522</t>
-  </si>
-  <si>
-    <t>Костромская область, город Кострома, улица Переславская</t>
-  </si>
-  <si>
-    <t>5d8bc30c-fd4e-439d-bb5a-f4bac3629bd8</t>
-  </si>
-  <si>
-    <t>Костромская область, город Кострома, проезд Калязинский</t>
-  </si>
-  <si>
-    <t>380ed3a0-c11f-424b-bea6-7ba138762c05</t>
-  </si>
-  <si>
-    <t>Костромская область, город Кострома, проезд Камышинский</t>
+    <t>def3b0fe-034c-4144-ad9c-9201cd30461e</t>
+  </si>
+  <si>
+    <t>Костромская область, город Кострома, улица Самарская</t>
+  </si>
+  <si>
+    <t>366f3ac0-7bc5-4fc0-8c76-4537ef187a08</t>
+  </si>
+  <si>
+    <t>Костромская область, город Кострома, улица Нижегородская</t>
+  </si>
+  <si>
+    <t>0fe56a6d-ff90-438b-bd91-0f8504e5e3ae</t>
+  </si>
+  <si>
+    <t>Костромская область, город Кострома, улица Волгоградская</t>
+  </si>
+  <si>
+    <t>9a2e6bc9-0f16-4db8-8c8e-000f903598c3</t>
+  </si>
+  <si>
+    <t>Костромская область, город Кострома, проезд Городецкий</t>
+  </si>
+  <si>
+    <t>fa1f81db-6faf-41f7-8762-a3987dc4aaf1</t>
+  </si>
+  <si>
+    <t>Костромская область, Вохомский район, деревня Питер</t>
+  </si>
+  <si>
+    <t>4730bda1-5db1-4d2a-82df-ff7ab45f9b61</t>
+  </si>
+  <si>
+    <t>Нижегородская область, город Арзамас, село Питер</t>
+  </si>
+  <si>
+    <t>bb31ede5-d3ec-4461-b8db-28129d66389e</t>
+  </si>
+  <si>
+    <t>Пермский край, Кудымкарский район, деревня Питер</t>
+  </si>
+  <si>
+    <t>0dd0e790-880f-4484-aff8-0688cee44b24</t>
+  </si>
+  <si>
+    <t>Нижегородская область, город Арзамас, село Питер, улица Центральная</t>
+  </si>
+  <si>
+    <t>217852ed-392f-43ee-bba0-2b3a45d879b3</t>
+  </si>
+  <si>
+    <t>Пермский край, Кудымкарский район, деревня Питер, улица Нагорная</t>
+  </si>
+  <si>
+    <t>061e1972-a40e-4f5d-a872-cefeba14eae7</t>
+  </si>
+  <si>
+    <t>Город Москва, проспект Защитников Москвы</t>
+  </si>
+  <si>
+    <t>0c5b2444-70a0-4932-980c-b4dc0d3f02b5</t>
+  </si>
+  <si>
+    <t>Город Москва</t>
+  </si>
+  <si>
+    <t>88b9b6f7-9e64-4a8b-9397-8e2244d3c06a</t>
+  </si>
+  <si>
+    <t>Город Москва, улица 800-летия Москвы</t>
+  </si>
+  <si>
+    <t>7e3ccd9e-bc80-4d1d-a21e-7f23c5c89842</t>
+  </si>
+  <si>
+    <t>Город Москва, улица Крузенштерна</t>
+  </si>
+  <si>
+    <t>edf58ab6-e046-467c-980c-0dbc526f47ff</t>
+  </si>
+  <si>
+    <t>Город Москва, улица Аршинова</t>
+  </si>
+  <si>
+    <t>fb559a30-48fb-42cd-aa62-dd2ec38fcc38</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан, город Уфа, улица Набережная р. Уфы</t>
+  </si>
+  <si>
+    <t>7339e834-2cb4-4734-a4c7-1fca2c66e562</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан, город Уфа</t>
+  </si>
+  <si>
+    <t>633f51ba-448f-44d6-b2fb-5d182b52838e</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан, город Уфа, деревня Ветошниково</t>
+  </si>
+  <si>
+    <t>b68dbaa3-2a57-42e2-b87e-af179af3e109</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан, город Уфа, поселок Поляна</t>
+  </si>
+  <si>
+    <t>05adf5bd-8844-4eed-80fc-6c798310f496</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан, город Уфа, деревня Аркаул</t>
+  </si>
+  <si>
+    <t>f66a00e6-179e-4de9-8ecb-78b0277c9f10</t>
+  </si>
+  <si>
+    <t>Владимирская область, город Владимир</t>
+  </si>
+  <si>
+    <t>b4e85da3-9b8a-4481-86ad-d5f85d260bbb</t>
+  </si>
+  <si>
+    <t>Республика Башкортостан, Зилаирский район, хутор Владимиро-Николаевский, улица Владимиро-Никольская</t>
+  </si>
+  <si>
+    <t>1b5dfc8f-2387-49b6-ae79-8ae83ae13a91</t>
+  </si>
+  <si>
+    <t>Приморский край, Партизанский район, село Владимиро-Александровское, переулок Владимиро-Александровский</t>
+  </si>
+  <si>
+    <t>e5c7f020-c1d4-4f0c-9ffe-e3142677e1e2</t>
+  </si>
+  <si>
+    <t>Приморский край, Партизанский район, село Владимиро-Александровское, улица Владимира Арсеньева</t>
+  </si>
+  <si>
+    <t>d2fea908-a75b-4026-90b5-a0a526908a88</t>
+  </si>
+  <si>
+    <t>Владимирская область, город Владимир, километр 196</t>
+  </si>
+  <si>
+    <t>23ec919d-7478-4d75-a2e2-c369b96c2df5</t>
+  </si>
+  <si>
+    <t>Ярославская область, город Ярославль, площадь Ярославль Главный</t>
+  </si>
+  <si>
+    <t>17493afe-3aa6-4da3-bead-952ab1d63fff</t>
+  </si>
+  <si>
+    <t>Ярославская область, Ярославский район, поселок пансионата "Ярославль", садовое товарищество Ярославль</t>
+  </si>
+  <si>
+    <t>6b1bab7d-ee45-4168-a2a6-4ce2880d90d3</t>
+  </si>
+  <si>
+    <t>Ярославская область, город Ярославль</t>
+  </si>
+  <si>
+    <t>bc2c2e1b-d8ed-4495-8a85-a6e1bbbf156d</t>
+  </si>
+  <si>
+    <t>Кировская область, Слободской район, деревня Ярославль</t>
+  </si>
+  <si>
+    <t>9b811ec3-d67a-4628-87c8-0b813029c1fd</t>
+  </si>
+  <si>
+    <t>Смоленская область, Ельнинский район, деревня Ярославль</t>
+  </si>
+  <si>
+    <t>47359594-fd47-4802-a0b1-d6b889116e65</t>
+  </si>
+  <si>
+    <t>Пермский край, город Пермь, станция Пермь-Сортировочная</t>
+  </si>
+  <si>
+    <t>ba396acb-f5c8-4f65-8a2f-010cf39fa14d</t>
+  </si>
+  <si>
+    <t>Пермский край, город Пермь, железнодорожная станция ПЕРМЬ-2</t>
+  </si>
+  <si>
+    <t>a309e4ce-2f36-4106-b1ca-53e0f48a6d95</t>
+  </si>
+  <si>
+    <t>Пермский край, город Пермь</t>
+  </si>
+  <si>
+    <t>86484b03-c4ce-4502-8f25-f8ab4121d2f9</t>
+  </si>
+  <si>
+    <t>Пермский край, город Пермь, территория ГСК 44 порт Пермь</t>
+  </si>
+  <si>
+    <t>4ae9b4e7-8125-4c73-83d0-4cdf59684dbb</t>
+  </si>
+  <si>
+    <t>Пермский край, город Пермь, территория тсн СНТ Строитель г. Перми</t>
+  </si>
+  <si>
+    <t>79da737a-603b-4c19-9b54-9114c96fb912</t>
+  </si>
+  <si>
+    <t>Краснодарский край, город Сочи</t>
+  </si>
+  <si>
+    <t>c4150a43-e283-43f6-b733-894086d46024</t>
+  </si>
+  <si>
+    <t>Краснодарский край, город Сочи, село Измайловка</t>
+  </si>
+  <si>
+    <t>86debd3c-0535-4a60-895f-1e0d2df38ef0</t>
+  </si>
+  <si>
+    <t>Краснодарский край, город Сочи, село Аибга</t>
+  </si>
+  <si>
+    <t>d56aa604-6ca3-4068-a240-b091fbd53af6</t>
+  </si>
+  <si>
+    <t>Краснодарский край, город Сочи, село Семеновка</t>
+  </si>
+  <si>
+    <t>545e6294-4741-408f-bd5b-4abf8bfc0648</t>
+  </si>
+  <si>
+    <t>Краснодарский край, город Сочи, село Бестужевское</t>
+  </si>
+  <si>
+    <t>f347f78e-f991-4b0b-bfbd-600ac927b009</t>
+  </si>
+  <si>
+    <t>Владимирская область, Суздальский район, город Суздаль</t>
+  </si>
+  <si>
+    <t>8d6db0f0-4d25-4920-bc91-f5639b137b34</t>
+  </si>
+  <si>
+    <t>Пермский край, Пермский район, деревня Суздалы</t>
+  </si>
+  <si>
+    <t>44d20ba2-6750-4d09-8055-1410b2502b94</t>
+  </si>
+  <si>
+    <t>Владимирская область, Суздальский район, город Суздаль, улица Промышленная</t>
+  </si>
+  <si>
+    <t>46ac38f4-c624-4918-949a-36794174f047</t>
+  </si>
+  <si>
+    <t>Владимирская область, Суздальский район, город Суздаль, переулок Дунаева</t>
+  </si>
+  <si>
+    <t>35f1b650-7b7d-4210-a470-3c9f8a7f7dd8</t>
+  </si>
+  <si>
+    <t>Владимирская область, Суздальский район, город Суздаль, улица Скобенникова</t>
+  </si>
+  <si>
+    <t>55080709-aea9-459e-8718-488af2963ea2</t>
+  </si>
+  <si>
+    <t>Ростовская область, город Ростов-на-Дону, сад Ростов-Главный</t>
+  </si>
+  <si>
+    <t>ffc153b9-ee23-4cdf-a0d7-2ab6dc2a2721</t>
+  </si>
+  <si>
+    <t>Ростовская область, город Ростов-на-Дону, станция Ростов-Товарная</t>
+  </si>
+  <si>
+    <t>240684f8-8e9e-4a33-aaab-f7e87bc8c4b5</t>
+  </si>
+  <si>
+    <t>Республика Дагестан, Тляратинский район, село Роста</t>
+  </si>
+  <si>
+    <t>88d6a9d3-d31c-41d3-ba4a-f96f852c3dab</t>
+  </si>
+  <si>
+    <t>Мурманская область, город Мурманск, территория РОСТА</t>
+  </si>
+  <si>
+    <t>c1cfe4b9-f7c2-423c-abfa-6ed1c05a15c5</t>
+  </si>
+  <si>
+    <t>Ростовская область, город Ростов-на-Дону</t>
   </si>
 </sst>
 </file>
@@ -101,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,13 +396,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -138,7 +414,10 @@
         <v>44.0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>717942.0</v>
       </c>
     </row>
     <row r="3">
@@ -146,7 +425,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>10.0</v>
@@ -155,7 +434,10 @@
         <v>44.0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0419983E8</v>
       </c>
     </row>
     <row r="4">
@@ -163,7 +445,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>10.0</v>
@@ -172,7 +454,10 @@
         <v>44.0</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.04199831E8</v>
       </c>
     </row>
     <row r="5">
@@ -180,7 +465,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>10.0</v>
@@ -189,7 +474,10 @@
         <v>44.0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.04199832E8</v>
       </c>
     </row>
     <row r="6">
@@ -197,7 +485,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>10.0</v>
@@ -206,7 +494,910 @@
         <v>44.0</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.04199834E8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>719169.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>903904.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1055418.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="n">
+        <v>903668.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1057686.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1418877.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1405113.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1408865.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.04424057E8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.04424096E8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9417.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6326.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5538.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5615.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5783.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="n">
+        <v>501098.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29698.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>390716.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.7886327E7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="n">
+        <v>500468.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1386723.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1386771.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1383767.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="n">
+        <v>712603.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1231522.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1032042.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1032094.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1026752.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1028764.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1035334.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="n">
+        <v>294728.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="n">
+        <v>292837.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="n">
+        <v>292922.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="n">
+        <v>292949.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="n">
+        <v>293053.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="n">
+        <v>517371.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1050887.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="n">
+        <v>515488.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="n">
+        <v>515494.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="n">
+        <v>515543.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1086747.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1089200.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="n">
+        <v>98810.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="n">
+        <v>893312.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1082239.0</v>
       </c>
     </row>
   </sheetData>
